--- a/datas/Data_forecast/predict_scenarios.xlsx
+++ b/datas/Data_forecast/predict_scenarios.xlsx
@@ -1784,25 +1784,25 @@
         <v>2022</v>
       </c>
       <c r="B54">
-        <v>33.285</v>
+        <v>33.2822</v>
       </c>
       <c r="C54">
-        <v>99.855</v>
+        <v>99.8466</v>
       </c>
       <c r="D54">
-        <v>21.3975</v>
+        <v>21.3957</v>
       </c>
       <c r="E54">
-        <v>45.1725</v>
+        <v>45.1687</v>
       </c>
       <c r="F54">
-        <v>16.6425</v>
+        <v>16.6411</v>
       </c>
       <c r="G54">
-        <v>21.3975</v>
+        <v>21.3957</v>
       </c>
       <c r="H54">
-        <v>237.75</v>
+        <v>237.73</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1810,25 +1810,25 @@
         <v>2023</v>
       </c>
       <c r="B55">
-        <v>34.0494</v>
+        <v>34.04799999999999</v>
       </c>
       <c r="C55">
-        <v>102.1482</v>
+        <v>102.144</v>
       </c>
       <c r="D55">
-        <v>21.8889</v>
+        <v>21.888</v>
       </c>
       <c r="E55">
-        <v>46.2099</v>
+        <v>46.208</v>
       </c>
       <c r="F55">
-        <v>17.0247</v>
+        <v>17.024</v>
       </c>
       <c r="G55">
-        <v>21.8889</v>
+        <v>21.888</v>
       </c>
       <c r="H55">
-        <v>243.21</v>
+        <v>243.2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1836,25 +1836,25 @@
         <v>2024</v>
       </c>
       <c r="B56">
-        <v>34.1656</v>
+        <v>34.1628</v>
       </c>
       <c r="C56">
-        <v>102.4968</v>
+        <v>102.4884</v>
       </c>
       <c r="D56">
-        <v>21.9636</v>
+        <v>21.9618</v>
       </c>
       <c r="E56">
-        <v>46.3676</v>
+        <v>46.3638</v>
       </c>
       <c r="F56">
-        <v>17.0828</v>
+        <v>17.0814</v>
       </c>
       <c r="G56">
-        <v>21.9636</v>
+        <v>21.9618</v>
       </c>
       <c r="H56">
-        <v>244.04</v>
+        <v>244.02</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1862,25 +1862,25 @@
         <v>2025</v>
       </c>
       <c r="B57">
-        <v>34.9272</v>
+        <v>34.9244</v>
       </c>
       <c r="C57">
-        <v>104.7816</v>
+        <v>104.7732</v>
       </c>
       <c r="D57">
-        <v>22.4532</v>
+        <v>22.4514</v>
       </c>
       <c r="E57">
-        <v>47.4012</v>
+        <v>47.3974</v>
       </c>
       <c r="F57">
-        <v>17.4636</v>
+        <v>17.4622</v>
       </c>
       <c r="G57">
-        <v>22.4532</v>
+        <v>22.4514</v>
       </c>
       <c r="H57">
-        <v>249.48</v>
+        <v>249.46</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1888,25 +1888,25 @@
         <v>2026</v>
       </c>
       <c r="B58">
-        <v>34.9832</v>
+        <v>34.979</v>
       </c>
       <c r="C58">
-        <v>104.9496</v>
+        <v>104.937</v>
       </c>
       <c r="D58">
-        <v>22.4892</v>
+        <v>22.4865</v>
       </c>
       <c r="E58">
-        <v>47.4772</v>
+        <v>47.4715</v>
       </c>
       <c r="F58">
-        <v>17.4916</v>
+        <v>17.4895</v>
       </c>
       <c r="G58">
-        <v>22.4892</v>
+        <v>22.4865</v>
       </c>
       <c r="H58">
-        <v>249.88</v>
+        <v>249.85</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1914,25 +1914,25 @@
         <v>2027</v>
       </c>
       <c r="B59">
-        <v>35.609</v>
+        <v>35.6062</v>
       </c>
       <c r="C59">
-        <v>106.827</v>
+        <v>106.8186</v>
       </c>
       <c r="D59">
-        <v>22.8915</v>
+        <v>22.8897</v>
       </c>
       <c r="E59">
-        <v>48.3265</v>
+        <v>48.3227</v>
       </c>
       <c r="F59">
-        <v>17.8045</v>
+        <v>17.8031</v>
       </c>
       <c r="G59">
-        <v>22.8915</v>
+        <v>22.8897</v>
       </c>
       <c r="H59">
-        <v>254.35</v>
+        <v>254.33</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1940,25 +1940,25 @@
         <v>2028</v>
       </c>
       <c r="B60">
-        <v>36.1018</v>
+        <v>36.099</v>
       </c>
       <c r="C60">
-        <v>108.3054</v>
+        <v>108.297</v>
       </c>
       <c r="D60">
-        <v>23.2083</v>
+        <v>23.2065</v>
       </c>
       <c r="E60">
-        <v>48.9953</v>
+        <v>48.9915</v>
       </c>
       <c r="F60">
-        <v>18.0509</v>
+        <v>18.0495</v>
       </c>
       <c r="G60">
-        <v>23.2083</v>
+        <v>23.2065</v>
       </c>
       <c r="H60">
-        <v>257.87</v>
+        <v>257.85</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1966,25 +1966,25 @@
         <v>2029</v>
       </c>
       <c r="B61">
-        <v>36.3944</v>
+        <v>36.3902</v>
       </c>
       <c r="C61">
-        <v>109.1832</v>
+        <v>109.1706</v>
       </c>
       <c r="D61">
-        <v>23.3964</v>
+        <v>23.3937</v>
       </c>
       <c r="E61">
-        <v>49.39239999999999</v>
+        <v>49.3867</v>
       </c>
       <c r="F61">
-        <v>18.1972</v>
+        <v>18.1951</v>
       </c>
       <c r="G61">
-        <v>23.3964</v>
+        <v>23.3937</v>
       </c>
       <c r="H61">
-        <v>259.96</v>
+        <v>259.93</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1992,25 +1992,25 @@
         <v>2030</v>
       </c>
       <c r="B62">
-        <v>36.89279999999999</v>
+        <v>36.8886</v>
       </c>
       <c r="C62">
-        <v>110.6784</v>
+        <v>110.6658</v>
       </c>
       <c r="D62">
-        <v>23.7168</v>
+        <v>23.7141</v>
       </c>
       <c r="E62">
-        <v>50.06879999999999</v>
+        <v>50.06310000000001</v>
       </c>
       <c r="F62">
-        <v>18.4464</v>
+        <v>18.4443</v>
       </c>
       <c r="G62">
-        <v>23.7168</v>
+        <v>23.7141</v>
       </c>
       <c r="H62">
-        <v>263.52</v>
+        <v>263.49</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2018,25 +2018,25 @@
         <v>2031</v>
       </c>
       <c r="B63">
-        <v>37.3142</v>
+        <v>37.31</v>
       </c>
       <c r="C63">
-        <v>111.9426</v>
+        <v>111.93</v>
       </c>
       <c r="D63">
-        <v>23.9877</v>
+        <v>23.985</v>
       </c>
       <c r="E63">
-        <v>50.6407</v>
+        <v>50.635</v>
       </c>
       <c r="F63">
-        <v>18.6571</v>
+        <v>18.655</v>
       </c>
       <c r="G63">
-        <v>23.9877</v>
+        <v>23.985</v>
       </c>
       <c r="H63">
-        <v>266.53</v>
+        <v>266.5</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2044,25 +2044,25 @@
         <v>2032</v>
       </c>
       <c r="B64">
-        <v>37.6838</v>
+        <v>37.6796</v>
       </c>
       <c r="C64">
-        <v>113.0514</v>
+        <v>113.0388</v>
       </c>
       <c r="D64">
-        <v>24.2253</v>
+        <v>24.2226</v>
       </c>
       <c r="E64">
-        <v>51.14230000000001</v>
+        <v>51.1366</v>
       </c>
       <c r="F64">
-        <v>18.8419</v>
+        <v>18.8398</v>
       </c>
       <c r="G64">
-        <v>24.2253</v>
+        <v>24.2226</v>
       </c>
       <c r="H64">
-        <v>269.17</v>
+        <v>269.14</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2070,25 +2070,25 @@
         <v>2033</v>
       </c>
       <c r="B65">
-        <v>38.206</v>
+        <v>38.2032</v>
       </c>
       <c r="C65">
-        <v>114.618</v>
+        <v>114.6096</v>
       </c>
       <c r="D65">
-        <v>24.561</v>
+        <v>24.5592</v>
       </c>
       <c r="E65">
-        <v>51.85099999999999</v>
+        <v>51.8472</v>
       </c>
       <c r="F65">
-        <v>19.103</v>
+        <v>19.1016</v>
       </c>
       <c r="G65">
-        <v>24.561</v>
+        <v>24.5592</v>
       </c>
       <c r="H65">
-        <v>272.9</v>
+        <v>272.88</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2096,25 +2096,25 @@
         <v>2034</v>
       </c>
       <c r="B66">
-        <v>38.5546</v>
+        <v>38.5504</v>
       </c>
       <c r="C66">
-        <v>115.6638</v>
+        <v>115.6512</v>
       </c>
       <c r="D66">
-        <v>24.7851</v>
+        <v>24.7824</v>
       </c>
       <c r="E66">
-        <v>52.3241</v>
+        <v>52.3184</v>
       </c>
       <c r="F66">
-        <v>19.2773</v>
+        <v>19.2752</v>
       </c>
       <c r="G66">
-        <v>24.7851</v>
+        <v>24.7824</v>
       </c>
       <c r="H66">
-        <v>275.39</v>
+        <v>275.36</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2122,25 +2122,25 @@
         <v>2035</v>
       </c>
       <c r="B67">
-        <v>38.9214</v>
+        <v>38.9172</v>
       </c>
       <c r="C67">
-        <v>116.7642</v>
+        <v>116.7516</v>
       </c>
       <c r="D67">
-        <v>25.0209</v>
+        <v>25.0182</v>
       </c>
       <c r="E67">
-        <v>52.8219</v>
+        <v>52.81620000000001</v>
       </c>
       <c r="F67">
-        <v>19.4607</v>
+        <v>19.4586</v>
       </c>
       <c r="G67">
-        <v>25.0209</v>
+        <v>25.0182</v>
       </c>
       <c r="H67">
-        <v>278.01</v>
+        <v>277.98</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2148,25 +2148,25 @@
         <v>2036</v>
       </c>
       <c r="B68">
-        <v>39.3498</v>
+        <v>39.3456</v>
       </c>
       <c r="C68">
-        <v>118.0494</v>
+        <v>118.0368</v>
       </c>
       <c r="D68">
-        <v>25.2963</v>
+        <v>25.2936</v>
       </c>
       <c r="E68">
-        <v>53.4033</v>
+        <v>53.3976</v>
       </c>
       <c r="F68">
-        <v>19.6749</v>
+        <v>19.6728</v>
       </c>
       <c r="G68">
-        <v>25.2963</v>
+        <v>25.2936</v>
       </c>
       <c r="H68">
-        <v>281.07</v>
+        <v>281.04</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2174,25 +2174,25 @@
         <v>2037</v>
       </c>
       <c r="B69">
-        <v>39.8216</v>
+        <v>39.8174</v>
       </c>
       <c r="C69">
-        <v>119.4648</v>
+        <v>119.4522</v>
       </c>
       <c r="D69">
-        <v>25.5996</v>
+        <v>25.5969</v>
       </c>
       <c r="E69">
-        <v>54.0436</v>
+        <v>54.03790000000001</v>
       </c>
       <c r="F69">
-        <v>19.9108</v>
+        <v>19.9087</v>
       </c>
       <c r="G69">
-        <v>25.5996</v>
+        <v>25.5969</v>
       </c>
       <c r="H69">
-        <v>284.44</v>
+        <v>284.41</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2200,25 +2200,25 @@
         <v>2038</v>
       </c>
       <c r="B70">
-        <v>40.1086</v>
+        <v>40.1058</v>
       </c>
       <c r="C70">
-        <v>120.3258</v>
+        <v>120.3174</v>
       </c>
       <c r="D70">
-        <v>25.7841</v>
+        <v>25.78230000000001</v>
       </c>
       <c r="E70">
-        <v>54.4331</v>
+        <v>54.4293</v>
       </c>
       <c r="F70">
-        <v>20.0543</v>
+        <v>20.0529</v>
       </c>
       <c r="G70">
-        <v>25.7841</v>
+        <v>25.78230000000001</v>
       </c>
       <c r="H70">
-        <v>286.49</v>
+        <v>286.47</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2226,25 +2226,25 @@
         <v>2039</v>
       </c>
       <c r="B71">
-        <v>40.60279999999999</v>
+        <v>40.5986</v>
       </c>
       <c r="C71">
-        <v>121.8084</v>
+        <v>121.7958</v>
       </c>
       <c r="D71">
-        <v>26.1018</v>
+        <v>26.0991</v>
       </c>
       <c r="E71">
-        <v>55.10379999999999</v>
+        <v>55.0981</v>
       </c>
       <c r="F71">
-        <v>20.3014</v>
+        <v>20.2993</v>
       </c>
       <c r="G71">
-        <v>26.1018</v>
+        <v>26.0991</v>
       </c>
       <c r="H71">
-        <v>290.02</v>
+        <v>289.99</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2252,25 +2252,25 @@
         <v>2040</v>
       </c>
       <c r="B72">
-        <v>40.901</v>
+        <v>40.8982</v>
       </c>
       <c r="C72">
-        <v>122.703</v>
+        <v>122.6946</v>
       </c>
       <c r="D72">
-        <v>26.2935</v>
+        <v>26.2917</v>
       </c>
       <c r="E72">
-        <v>55.5085</v>
+        <v>55.5047</v>
       </c>
       <c r="F72">
-        <v>20.4505</v>
+        <v>20.4491</v>
       </c>
       <c r="G72">
-        <v>26.2935</v>
+        <v>26.2917</v>
       </c>
       <c r="H72">
-        <v>292.15</v>
+        <v>292.13</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2278,25 +2278,25 @@
         <v>2041</v>
       </c>
       <c r="B73">
-        <v>41.37560000000001</v>
+        <v>41.3728</v>
       </c>
       <c r="C73">
-        <v>124.1268</v>
+        <v>124.1184</v>
       </c>
       <c r="D73">
-        <v>26.5986</v>
+        <v>26.5968</v>
       </c>
       <c r="E73">
-        <v>56.1526</v>
+        <v>56.14879999999999</v>
       </c>
       <c r="F73">
-        <v>20.6878</v>
+        <v>20.6864</v>
       </c>
       <c r="G73">
-        <v>26.5986</v>
+        <v>26.5968</v>
       </c>
       <c r="H73">
-        <v>295.54</v>
+        <v>295.52</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2304,25 +2304,25 @@
         <v>2042</v>
       </c>
       <c r="B74">
-        <v>41.804</v>
+        <v>41.8012</v>
       </c>
       <c r="C74">
-        <v>125.412</v>
+        <v>125.4036</v>
       </c>
       <c r="D74">
-        <v>26.874</v>
+        <v>26.8722</v>
       </c>
       <c r="E74">
-        <v>56.73400000000001</v>
+        <v>56.7302</v>
       </c>
       <c r="F74">
-        <v>20.902</v>
+        <v>20.9006</v>
       </c>
       <c r="G74">
-        <v>26.874</v>
+        <v>26.8722</v>
       </c>
       <c r="H74">
-        <v>298.6</v>
+        <v>298.58</v>
       </c>
     </row>
   </sheetData>
